--- a/S2022_Tests/TestingOverlap/KEY/MecE265_Ass01_dnobes/ExcelExtract.xlsx
+++ b/S2022_Tests/TestingOverlap/KEY/MecE265_Ass01_dnobes/ExcelExtract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\SolidWorks\AutoMARK\AutoMARK_V6\S2022_Tests\TestingOverlap\KEY\MecE265_Ass01_dnobes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65EFDCB2-0FD1-4760-A550-C5EF0E67A0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA5CC65-0C38-48EC-A7DA-C6701A2D2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{CDB8D175-03D3-4BF9-A06C-9C4E2647BA9D}"/>
+    <workbookView xWindow="13" yWindow="4847" windowWidth="24860" windowHeight="7800" xr2:uid="{940911BB-D991-478F-BE1C-8AED7A9930C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F19C78-9CD1-4E27-A065-657A54DC7DD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E523E6-AF15-4223-B933-4248F28A037D}">
   <dimension ref="A1:AS125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
